--- a/data/trans_bre/P16A08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,45%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 3,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 3,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 3,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 3,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,84; 236,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,22; 164,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; 156,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,99; 332,11</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,23%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 3,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,08; 3,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,41; 3,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 3,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,34; 210,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,98; 138,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,22; 165,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; 101,39</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,05%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 2,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 5,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 5,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 5,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,22; 99,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,71; 162,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,13; 170,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,78; 328,75</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,04%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 2,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 3,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,47; 3,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 3,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,93; 123,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,27; 107,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,92; 125,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,39; 109,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Estudios-trans_bre.xlsx
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>102,45%</t>
+          <t>105,05%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,16</t>
+          <t>-0,1; 3,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 332,11</t>
+          <t>-7,97; 341,79</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,23%</t>
+          <t>99,89%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,42</t>
+          <t>0,09; 15,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 101,39</t>
+          <t>1,34; 465,57</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>130,05%</t>
+          <t>113,59%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,3</t>
+          <t>0,88; 5,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,78; 328,75</t>
+          <t>16,68; 312,12</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>95,79%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,35</t>
+          <t>0,87; 10,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,39; 109,82</t>
+          <t>24,05; 356,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,15</t>
+          <t>0,39; 2,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,25</t>
+          <t>0,05; 3,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 3,09</t>
+          <t>-0,4; 3,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,17</t>
+          <t>0,1; 3,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,84; 236,62</t>
+          <t>12,82; 212,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 164,67</t>
+          <t>-0,41; 180,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 156,64</t>
+          <t>-15,61; 167,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 341,79</t>
+          <t>-3,91; 327,84</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,29</t>
+          <t>0,83; 3,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,95</t>
+          <t>1,04; 4,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,9</t>
+          <t>1,43; 4,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 15,84</t>
+          <t>0,12; 14,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,34; 210,92</t>
+          <t>29,28; 204,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,98; 138,38</t>
+          <t>25,68; 144,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,22; 165,7</t>
+          <t>42,59; 170,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 465,57</t>
+          <t>2,72; 480,61</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,88</t>
+          <t>-2,74; 2,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 5,9</t>
+          <t>-1,46; 5,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,43</t>
+          <t>-0,21; 5,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,22</t>
+          <t>0,4; 5,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,22; 99,18</t>
+          <t>-50,8; 88,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 162,27</t>
+          <t>-23,78; 142,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 170,63</t>
+          <t>-6,82; 179,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,68; 312,12</t>
+          <t>2,42; 285,0</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,48</t>
+          <t>0,64; 2,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,14</t>
+          <t>1,11; 3,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,44</t>
+          <t>1,25; 3,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 10,7</t>
+          <t>0,87; 10,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,93; 123,2</t>
+          <t>21,03; 121,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,27; 107,59</t>
+          <t>27,77; 107,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,92; 125,69</t>
+          <t>35,09; 122,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,05; 356,53</t>
+          <t>23,78; 332,06</t>
         </is>
       </c>
     </row>
